--- a/统计文档/最新统计/限制的图的解是否都在对应图中.xlsx
+++ b/统计文档/最新统计/限制的图的解是否都在对应图中.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\最新统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\统计文档\最新统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC2F2E-D3FC-4C50-A221-20D1735E5AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89055360-A1F6-4F56-A385-644D4F3C7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LKH" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3102,7 +3102,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4377,16 +4377,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>323274</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>60036</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>288637</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>288636</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>32327</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>15009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4418,16 +4418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>265546</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>733137</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>230909</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4721,18 +4721,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF50" sqref="AF50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="8.6640625" style="1"/>
-    <col min="36" max="36" width="11.08203125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="35" width="8.625" style="1"/>
+    <col min="36" max="36" width="11.125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>32</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>35</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>47</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>48</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>52</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>53</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>54</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>55</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>56</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>57</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>58</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>60</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>61</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>62</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>63</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>64</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>65</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>66</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>67</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>68</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>69</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>70</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>71</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>79</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>82</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>83</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>84</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>85</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>86</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>87</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>88</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>89</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>90</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>91</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>92</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>93</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>94</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>95</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>96</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>97</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>98</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>99</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>100</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>101</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>102</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>103</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>104</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>105</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>106</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>107</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>108</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>109</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>110</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>111</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>112</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>114</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>115</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>116</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>117</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>118</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>119</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>120</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>121</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>122</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>123</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>124</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>125</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>126</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>127</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>128</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>129</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>130</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>131</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>132</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>133</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>134</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>135</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>136</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>137</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>138</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>139</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>140</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>141</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>142</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>143</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>144</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>145</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>146</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>147</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>148</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>149</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>150</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>151</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>152</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>153</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>154</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>155</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>156</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>157</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>158</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>159</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>160</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>161</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>162</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>163</v>
       </c>
@@ -20412,7 +20412,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>164</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>165</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>166</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>167</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>168</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>169</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>170</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>171</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>172</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>173</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>174</v>
       </c>
@@ -21490,7 +21490,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>175</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>176</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>177</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>178</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>179</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>180</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>181</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>182</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>183</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>184</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>185</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>186</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>187</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>188</v>
       </c>
@@ -22862,7 +22862,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>189</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>190</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>191</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>192</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>193</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>194</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>195</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>196</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>197</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>198</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>199</v>
       </c>
@@ -23940,7 +23940,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>200</v>
       </c>
@@ -24050,20 +24050,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E81CF90-795B-4F52-9D1F-60AD0EEB2A79}">
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="33" width="8.6640625" style="1"/>
+    <col min="1" max="33" width="8.625" style="1"/>
     <col min="34" max="35" width="9.5" style="1" customWidth="1"/>
     <col min="36" max="36" width="18.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.08203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.6640625" style="1"/>
+    <col min="37" max="37" width="16.125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -24161,7 +24161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -24259,7 +24259,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -24357,7 +24357,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -24651,7 +24651,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -25043,7 +25043,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>26</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>29</v>
       </c>
@@ -26611,7 +26611,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>32</v>
       </c>
@@ -26905,7 +26905,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>35</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -27297,7 +27297,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -27591,7 +27591,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -28179,7 +28179,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>46</v>
       </c>
@@ -28277,7 +28277,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>47</v>
       </c>
@@ -28375,7 +28375,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>48</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>50</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>52</v>
       </c>
@@ -28865,7 +28865,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>53</v>
       </c>
@@ -28963,7 +28963,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>54</v>
       </c>
@@ -29061,7 +29061,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>55</v>
       </c>
@@ -29159,7 +29159,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>56</v>
       </c>
@@ -29257,7 +29257,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>57</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>58</v>
       </c>
@@ -29453,7 +29453,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>59</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>60</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>61</v>
       </c>
@@ -29747,7 +29747,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>62</v>
       </c>
@@ -29845,7 +29845,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>63</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>64</v>
       </c>
@@ -30041,7 +30041,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>65</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>66</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>67</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>68</v>
       </c>
@@ -30433,7 +30433,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>69</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>70</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>71</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -30825,7 +30825,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -30923,7 +30923,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -31217,7 +31217,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -31413,7 +31413,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>79</v>
       </c>
@@ -31511,7 +31511,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -31609,7 +31609,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>82</v>
       </c>
@@ -31805,7 +31805,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>83</v>
       </c>
@@ -31903,7 +31903,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>84</v>
       </c>
@@ -32001,7 +32001,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>85</v>
       </c>
@@ -32099,7 +32099,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>86</v>
       </c>
@@ -32197,7 +32197,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>87</v>
       </c>
@@ -32295,7 +32295,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>88</v>
       </c>
@@ -32393,7 +32393,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>89</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>90</v>
       </c>
@@ -32589,7 +32589,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>91</v>
       </c>
@@ -32687,7 +32687,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>92</v>
       </c>
@@ -32785,7 +32785,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>93</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>94</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>95</v>
       </c>
@@ -33079,7 +33079,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>96</v>
       </c>
@@ -33177,7 +33177,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>97</v>
       </c>
@@ -33275,7 +33275,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>98</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>99</v>
       </c>
@@ -33471,7 +33471,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>100</v>
       </c>
@@ -33569,7 +33569,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>101</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>102</v>
       </c>
@@ -33765,7 +33765,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>103</v>
       </c>
@@ -33863,7 +33863,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>104</v>
       </c>
@@ -33961,7 +33961,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>105</v>
       </c>
@@ -34059,7 +34059,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>106</v>
       </c>
@@ -34157,7 +34157,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>107</v>
       </c>
@@ -34255,7 +34255,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>108</v>
       </c>
@@ -34353,7 +34353,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>109</v>
       </c>
@@ -34451,7 +34451,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>110</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>111</v>
       </c>
@@ -34647,7 +34647,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>112</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -34843,7 +34843,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>114</v>
       </c>
@@ -34941,7 +34941,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>115</v>
       </c>
@@ -35039,7 +35039,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>116</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>117</v>
       </c>
@@ -35235,7 +35235,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>118</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>119</v>
       </c>
@@ -35431,7 +35431,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>120</v>
       </c>
@@ -35529,7 +35529,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>121</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>122</v>
       </c>
@@ -35725,7 +35725,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>123</v>
       </c>
@@ -35823,7 +35823,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>124</v>
       </c>
@@ -35921,7 +35921,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>125</v>
       </c>
@@ -36019,7 +36019,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>126</v>
       </c>
@@ -36117,7 +36117,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>127</v>
       </c>
@@ -36215,7 +36215,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>128</v>
       </c>
@@ -36313,7 +36313,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>129</v>
       </c>
@@ -36411,7 +36411,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>130</v>
       </c>
@@ -36509,7 +36509,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>131</v>
       </c>
@@ -36607,7 +36607,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>132</v>
       </c>
@@ -36705,7 +36705,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>133</v>
       </c>
@@ -36803,7 +36803,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>134</v>
       </c>
@@ -36901,7 +36901,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>135</v>
       </c>
@@ -36999,7 +36999,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>136</v>
       </c>
@@ -37097,7 +37097,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>137</v>
       </c>
@@ -37195,7 +37195,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>138</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>139</v>
       </c>
@@ -37391,7 +37391,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>140</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>141</v>
       </c>
@@ -37587,7 +37587,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>142</v>
       </c>
@@ -37685,7 +37685,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>143</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>144</v>
       </c>
@@ -37881,7 +37881,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>145</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>146</v>
       </c>
@@ -38077,7 +38077,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>147</v>
       </c>
@@ -38175,7 +38175,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>148</v>
       </c>
@@ -38273,7 +38273,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>149</v>
       </c>
@@ -38371,7 +38371,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>150</v>
       </c>
@@ -38469,7 +38469,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>151</v>
       </c>
@@ -38567,7 +38567,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>152</v>
       </c>
@@ -38665,7 +38665,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>153</v>
       </c>
@@ -38763,7 +38763,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>154</v>
       </c>
@@ -38861,7 +38861,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>155</v>
       </c>
@@ -38959,7 +38959,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>156</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>157</v>
       </c>
@@ -39155,7 +39155,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>158</v>
       </c>
@@ -39253,7 +39253,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>159</v>
       </c>
@@ -39351,7 +39351,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>160</v>
       </c>
@@ -39449,7 +39449,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>161</v>
       </c>
@@ -39547,7 +39547,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>162</v>
       </c>
@@ -39645,7 +39645,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>163</v>
       </c>
@@ -39743,7 +39743,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>164</v>
       </c>
@@ -39841,7 +39841,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>165</v>
       </c>
@@ -39939,7 +39939,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>166</v>
       </c>
@@ -40037,7 +40037,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>167</v>
       </c>
@@ -40135,7 +40135,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>168</v>
       </c>
@@ -40233,7 +40233,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>169</v>
       </c>
@@ -40331,7 +40331,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>170</v>
       </c>
@@ -40429,7 +40429,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>171</v>
       </c>
@@ -40527,7 +40527,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>172</v>
       </c>
@@ -40625,7 +40625,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>173</v>
       </c>
@@ -40723,7 +40723,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>174</v>
       </c>
@@ -40821,7 +40821,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>175</v>
       </c>
@@ -40919,7 +40919,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>176</v>
       </c>
@@ -41017,7 +41017,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>177</v>
       </c>
@@ -41115,7 +41115,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>178</v>
       </c>
@@ -41213,7 +41213,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>179</v>
       </c>
@@ -41311,7 +41311,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>180</v>
       </c>
@@ -41409,7 +41409,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>181</v>
       </c>
@@ -41507,7 +41507,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>182</v>
       </c>
@@ -41605,7 +41605,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>183</v>
       </c>
@@ -41703,7 +41703,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>184</v>
       </c>
@@ -41801,7 +41801,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>185</v>
       </c>
@@ -41899,7 +41899,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>186</v>
       </c>
@@ -41997,7 +41997,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>187</v>
       </c>
@@ -42095,7 +42095,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>188</v>
       </c>
@@ -42193,7 +42193,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>189</v>
       </c>
@@ -42291,7 +42291,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>190</v>
       </c>
@@ -42389,7 +42389,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>191</v>
       </c>
@@ -42487,7 +42487,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>192</v>
       </c>
@@ -42585,7 +42585,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>193</v>
       </c>
@@ -42683,7 +42683,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>194</v>
       </c>
@@ -42781,7 +42781,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>195</v>
       </c>
@@ -42879,7 +42879,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>196</v>
       </c>
@@ -42977,7 +42977,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>197</v>
       </c>
@@ -43075,7 +43075,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>198</v>
       </c>
@@ -43173,7 +43173,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>199</v>
       </c>
@@ -43271,7 +43271,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>200</v>
       </c>
